--- a/Process Documents/Program Recommendation.xlsx
+++ b/Process Documents/Program Recommendation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\danie\Documents\GitHub\digibp-monterosa\Process Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{46B11267-669A-44E6-B971-D449DC5ECE37}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{96665F88-804C-4767-B954-F582C51CC5D4}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="11520" windowHeight="8460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -331,7 +331,7 @@
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="8">
+  <dxfs count="7">
     <dxf>
       <font>
         <b/>
@@ -396,13 +396,6 @@
       <font>
         <b/>
         <i val="0"/>
-        <color theme="4"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
       </font>
       <fill>
         <patternFill>
@@ -424,8 +417,8 @@
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
     <tableStyle name="MySqlDefault" pivot="0" table="0" count="2" xr9:uid="{3B95EC3A-70D1-428B-A55F-B4FE79C68A34}">
-      <tableStyleElement type="wholeTable" dxfId="7"/>
-      <tableStyleElement type="headerRow" dxfId="6"/>
+      <tableStyleElement type="wholeTable" dxfId="6"/>
+      <tableStyleElement type="headerRow" dxfId="5"/>
     </tableStyle>
   </tableStyles>
   <extLst>
@@ -437,6 +430,101 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>180975</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>90487</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="Textfeld 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5E15D08B-777C-4816-BF42-54DB8DD202BA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8863013" y="1052513"/>
+          <a:ext cx="2724150" cy="1252537"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="lt1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="de-CH" sz="1100" b="1"/>
+            <a:t>Features</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="de-CH" sz="1100" b="1" baseline="0"/>
+            <a:t> in Camunda Service Task:</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="de-CH" sz="1100" baseline="0"/>
+            <a:t>- Push form data to this workbook (B4:B27)</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="de-CH" sz="1100" baseline="0"/>
+            <a:t>- GetData (cells A36:B38)</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="de-CH" sz="1100" baseline="0"/>
+            <a:t>- DeleteData (B4:B27)</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="de-CH" sz="1100" baseline="0"/>
+            <a:t>- Close Workbook</a:t>
+          </a:r>
+          <a:endParaRPr lang="de-CH" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -740,7 +828,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B28" sqref="B28"/>
+      <selection pane="bottomLeft" activeCell="V23" sqref="V23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.06640625" defaultRowHeight="11.65" x14ac:dyDescent="0.35"/>
@@ -2436,5 +2524,6 @@
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>